--- a/Data/Input/ScreenerInput.xlsx
+++ b/Data/Input/ScreenerInput.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA098511-D14A-4DB9-9BEB-BFB8D5D80C78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4267A604-42C6-45B3-A77C-504EB992FFA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
     <t>INFINIX</t>
   </si>
   <si>
-    <t>ASIANPAINT</t>
+    <t>SLICE</t>
   </si>
 </sst>
 </file>
@@ -374,7 +374,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
